--- a/dictionary/import_ja_text.xlsx
+++ b/dictionary/import_ja_text.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\dsvn_dictionary\dictionary\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DC136E7-F493-4845-B886-ED0756C74E68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCBB4EE5-3F90-4DB9-9AA0-B3B43EC47B29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>kanji_text</t>
   </si>
@@ -121,9 +121,6 @@
   <si>
     <t>kem</t>
     <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>test</t>
   </si>
 </sst>
 </file>
@@ -523,7 +520,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -602,9 +599,6 @@
       </c>
       <c r="D5" t="s">
         <v>19</v>
-      </c>
-      <c r="E5" t="s">
-        <v>20</v>
       </c>
     </row>
   </sheetData>
